--- a/PERENCANAAN/RKP/RKP.xlsx
+++ b/PERENCANAAN/RKP/RKP.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,24 +9,51 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>No.</t>
   </si>
   <si>
     <t>Nama Kegiatan</t>
+  </si>
+  <si>
+    <t>Pembangunan Jalan 1</t>
+  </si>
+  <si>
+    <t>Pembangunan   Jalan 2</t>
+  </si>
+  <si>
+    <t>Pembangunan Jalan 3</t>
+  </si>
+  <si>
+    <t>Pembanguan jrmbatan 1</t>
+  </si>
+  <si>
+    <t>Pembangunan jmbatqa 2</t>
+  </si>
+  <si>
+    <t>pembangunan jembpatan 3</t>
+  </si>
+  <si>
+    <t>Pembangunan geduing 1</t>
+  </si>
+  <si>
+    <t>pembanguuna gedung 2</t>
+  </si>
+  <si>
+    <t>pembanugunan geduing 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,7 +144,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -149,10 +176,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -184,7 +210,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -360,20 +385,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -381,49 +406,76 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/PERENCANAAN/RKP/RKP.xlsx
+++ b/PERENCANAAN/RKP/RKP.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -13,9 +13,20 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Nama Kegiatan</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +63,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +117,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +152,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +360,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>